--- a/data/trans_dic/IP2001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 22,99</t>
+          <t>9,8; 22,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 24,5</t>
+          <t>10,72; 25,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 22,5</t>
+          <t>8,15; 22,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,44</t>
+          <t>1,51; 13,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 22,16</t>
+          <t>9,67; 21,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 18,04</t>
+          <t>7,14; 17,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 27,24</t>
+          <t>11,31; 28,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,51</t>
+          <t>11,64; 20,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 18,86</t>
+          <t>10,2; 19,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 22,97</t>
+          <t>11,41; 21,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,98</t>
+          <t>0,83; 8,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,02</t>
+          <t>5,27; 9,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,17</t>
+          <t>7,61; 12,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,21</t>
+          <t>7,77; 12,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,91</t>
+          <t>3,91; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,43</t>
+          <t>6,79; 11,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,38</t>
+          <t>8,58; 13,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,88</t>
+          <t>8,87; 13,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,81</t>
+          <t>3,36; 6,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,55</t>
+          <t>6,56; 9,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,09</t>
+          <t>8,59; 11,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,28</t>
+          <t>8,89; 12,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,66</t>
+          <t>4,1; 6,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,99</t>
+          <t>4,0; 11,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,05</t>
+          <t>2,19; 8,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,44</t>
+          <t>4,29; 11,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,63</t>
+          <t>4,28; 12,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,59</t>
+          <t>1,64; 6,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,01</t>
+          <t>1,76; 6,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,95</t>
+          <t>3,42; 9,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,46</t>
+          <t>2,62; 8,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,53</t>
+          <t>3,4; 7,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,51</t>
+          <t>2,54; 6,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,41</t>
+          <t>4,48; 9,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,06</t>
+          <t>4,16; 8,99</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,81</t>
+          <t>6,44; 9,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,52</t>
+          <t>7,61; 11,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,84</t>
+          <t>8,03; 11,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,69</t>
+          <t>4,54; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,31</t>
+          <t>6,73; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,36</t>
+          <t>7,48; 11,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,6</t>
+          <t>8,81; 12,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,16</t>
+          <t>3,32; 5,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,39</t>
+          <t>7,01; 9,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,73</t>
+          <t>8,17; 10,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 11,42</t>
+          <t>8,74; 11,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,48</t>
+          <t>4,2; 6,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>9,7; 22,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>7,29; 18,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,92; 28,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,86; 23,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,09; 25,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 22,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,52; 12,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>11,44; 20,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>9,62; 18,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,67; 22,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,78; 7,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 22,99</t>
+          <t>6,8; 11,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 25,52</t>
+          <t>8,63; 13,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 22,6</t>
+          <t>8,87; 13,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,44</t>
+          <t>3,23; 6,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 21,44</t>
+          <t>5,23; 8,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 17,79</t>
+          <t>7,36; 12,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 28,86</t>
+          <t>7,76; 12,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>3,75; 7,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 20,72</t>
+          <t>6,51; 9,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 19,18</t>
+          <t>8,77; 12,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,79</t>
+          <t>8,76; 12,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,02</t>
+          <t>3,97; 6,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,11</t>
+          <t>1,74; 6,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 12,07</t>
+          <t>1,73; 6,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,32</t>
+          <t>3,44; 10,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,92</t>
+          <t>2,75; 9,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,45</t>
+          <t>3,87; 10,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 13,74</t>
+          <t>2,19; 8,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,7</t>
+          <t>4,57; 11,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,9</t>
+          <t>4,3; 12,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,47</t>
+          <t>3,2; 7,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,85</t>
+          <t>2,6; 6,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,22</t>
+          <t>4,47; 9,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,81</t>
+          <t>4,39; 9,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,04</t>
+          <t>6,75; 10,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,32</t>
+          <t>7,43; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,25</t>
+          <t>8,53; 12,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,0</t>
+          <t>3,14; 5,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,85</t>
+          <t>6,36; 9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,94</t>
+          <t>7,89; 11,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,72</t>
+          <t>7,9; 11,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,49</t>
+          <t>4,54; 7,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,51</t>
+          <t>7,07; 9,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,44</t>
+          <t>8,13; 10,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,12</t>
+          <t>8,8; 11,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,99</t>
+          <t>4,28; 6,39</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 9,69</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 11,31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 11,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 7,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>6,73; 10,43</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,48; 11,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,81; 12,72</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 5,97</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 9,53</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>8,17; 10,73</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>8,74; 11,61</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 6,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
